--- a/biology/Biologie cellulaire et moléculaire/Interleukine_1_bêta/Interleukine_1_bêta.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Interleukine_1_bêta/Interleukine_1_bêta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Interleukine_1_b%C3%AAta</t>
+          <t>Interleukine_1_bêta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'interleukine 1 bêta est une isoforme de l'interleukine 1. Elle a un rôle pro-inflammatoire. Son gène est IL1B situé sur le chromosome 2 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Interleukine_1_b%C3%AAta</t>
+          <t>Interleukine_1_bêta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'interleukine 1 possède deux principales isoformes. L'interleukine 1 alpha est fixée à la cellule tandis que l'interleukine 1 bêta diffuse dans le sang permettant une action à distance.
 La protéine est fabriquée sous forme d'une pro-interleukine 1 bêta qui va être clivée par la caspase 1, l'un des composants de l'inflammasome, en interleukine 1 bêta.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Interleukine_1_b%C3%AAta</t>
+          <t>Interleukine_1_bêta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IL-1β favorise la chimiorésistance dans le cancer et est un acteur clé dans le microenvironnement tumoral[5],[6].
-Elle joue un rôle dans la formation de l'athérome[7]. Son taux sanguin, mesuré lors d'un infarctus du myocarde est corrélé avec un risque plus important de mortalité ou de complications[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IL-1β favorise la chimiorésistance dans le cancer et est un acteur clé dans le microenvironnement tumoral,.
+Elle joue un rôle dans la formation de l'athérome. Son taux sanguin, mesuré lors d'un infarctus du myocarde est corrélé avec un risque plus important de mortalité ou de complications.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Interleukine_1_b%C3%AAta</t>
+          <t>Interleukine_1_bêta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canakinumab est un anticorps monoclonal dirigé contre l'interleukine-1 bêta.
 </t>
